--- a/maps/WA/WA20C_candidates.xlsx
+++ b/maps/WA/WA20C_candidates.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/WA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F38F6-45A6-294E-B5AD-56964E694998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F937D497-C2A2-C84E-98F6-51F249CF419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="8520" yWindow="3040" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
-    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
+    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$86</definedName>
+    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/WA/WA20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>#</t>
   </si>
@@ -135,9 +135,6 @@
     <t>WA20C_I008K01N10</t>
   </si>
   <si>
-    <t>WA20C_I015K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I086K01N10</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>WA20C_I007K01N10</t>
   </si>
   <si>
-    <t>WA20C_I063K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I075K01N10</t>
   </si>
   <si>
@@ -177,18 +171,12 @@
     <t>WA20C_I051K01N10</t>
   </si>
   <si>
-    <t>WA20C_I093K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I006K01N10</t>
   </si>
   <si>
     <t>WA20C_I018K01N10</t>
   </si>
   <si>
-    <t>WA20C_I001K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I041K01N10</t>
   </si>
   <si>
@@ -207,18 +195,9 @@
     <t>WA20C_I057K01N10</t>
   </si>
   <si>
-    <t>WA20C_I059K01N10</t>
-  </si>
-  <si>
-    <t>WA20C_I053K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I044K01N10</t>
   </si>
   <si>
-    <t>WA20C_I078K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I004K01N10</t>
   </si>
   <si>
@@ -246,21 +225,12 @@
     <t>WA20C_I096K01N10</t>
   </si>
   <si>
-    <t>WA20C_I074K01N10</t>
-  </si>
-  <si>
-    <t>WA20C_I047K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I060K01N10</t>
   </si>
   <si>
     <t>WA20C_I017K01N10</t>
   </si>
   <si>
-    <t>WA20C_I026K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I016K01N10</t>
   </si>
   <si>
@@ -279,9 +249,6 @@
     <t>WA20C_I023K01N10</t>
   </si>
   <si>
-    <t>WA20C_I076K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I009K01N10</t>
   </si>
   <si>
@@ -312,12 +279,6 @@
     <t>WA20C_I094K01N10</t>
   </si>
   <si>
-    <t>WA20C_I055K01N10</t>
-  </si>
-  <si>
-    <t>WA20C_I031K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I032K01N10</t>
   </si>
   <si>
@@ -351,9 +312,6 @@
     <t>WA20C_I025K01N10</t>
   </si>
   <si>
-    <t>WA20C_I061K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I088K01N10</t>
   </si>
   <si>
@@ -396,9 +354,6 @@
     <t>WA20C_I050K01N10</t>
   </si>
   <si>
-    <t>WA20C_I069K01N10</t>
-  </si>
-  <si>
     <t>WA20C_I052K01N10</t>
   </si>
   <si>
@@ -427,6 +382,261 @@
   </si>
   <si>
     <t>WA20C_I039K01N10</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>0.064591</t>
+  </si>
+  <si>
+    <t>0.089229</t>
+  </si>
+  <si>
+    <t>0.128120</t>
+  </si>
+  <si>
+    <t>0.088788</t>
+  </si>
+  <si>
+    <t>0.257689</t>
+  </si>
+  <si>
+    <t>0.114683</t>
+  </si>
+  <si>
+    <t>0.115812</t>
+  </si>
+  <si>
+    <t>0.229967</t>
+  </si>
+  <si>
+    <t>0.274028</t>
+  </si>
+  <si>
+    <t>0.229122</t>
+  </si>
+  <si>
+    <t>0.098325</t>
+  </si>
+  <si>
+    <t>0.130715</t>
+  </si>
+  <si>
+    <t>0.155983</t>
+  </si>
+  <si>
+    <t>0.174235</t>
+  </si>
+  <si>
+    <t>0.229642</t>
+  </si>
+  <si>
+    <t>0.161056</t>
+  </si>
+  <si>
+    <t>0.247467</t>
+  </si>
+  <si>
+    <t>0.143768</t>
+  </si>
+  <si>
+    <t>0.269610</t>
+  </si>
+  <si>
+    <t>0.293495</t>
+  </si>
+  <si>
+    <t>0.369074</t>
+  </si>
+  <si>
+    <t>0.296377</t>
+  </si>
+  <si>
+    <t>0.269070</t>
+  </si>
+  <si>
+    <t>0.289579</t>
+  </si>
+  <si>
+    <t>0.366367</t>
+  </si>
+  <si>
+    <t>0.340182</t>
+  </si>
+  <si>
+    <t>0.289218</t>
+  </si>
+  <si>
+    <t>0.360374</t>
+  </si>
+  <si>
+    <t>0.376915</t>
+  </si>
+  <si>
+    <t>0.408934</t>
+  </si>
+  <si>
+    <t>0.385390</t>
+  </si>
+  <si>
+    <t>0.419823</t>
+  </si>
+  <si>
+    <t>0.423161</t>
+  </si>
+  <si>
+    <t>0.293462</t>
+  </si>
+  <si>
+    <t>0.455503</t>
+  </si>
+  <si>
+    <t>0.327357</t>
+  </si>
+  <si>
+    <t>0.572656</t>
+  </si>
+  <si>
+    <t>0.556745</t>
+  </si>
+  <si>
+    <t>0.323134</t>
+  </si>
+  <si>
+    <t>0.376749</t>
+  </si>
+  <si>
+    <t>0.424814</t>
+  </si>
+  <si>
+    <t>0.384601</t>
+  </si>
+  <si>
+    <t>0.406488</t>
+  </si>
+  <si>
+    <t>0.363972</t>
+  </si>
+  <si>
+    <t>0.518566</t>
+  </si>
+  <si>
+    <t>0.462960</t>
+  </si>
+  <si>
+    <t>0.404292</t>
+  </si>
+  <si>
+    <t>0.269467</t>
+  </si>
+  <si>
+    <t>0.439597</t>
+  </si>
+  <si>
+    <t>0.426198</t>
+  </si>
+  <si>
+    <t>0.409344</t>
+  </si>
+  <si>
+    <t>0.474524</t>
+  </si>
+  <si>
+    <t>0.542871</t>
+  </si>
+  <si>
+    <t>0.323622</t>
+  </si>
+  <si>
+    <t>0.271461</t>
+  </si>
+  <si>
+    <t>0.487759</t>
+  </si>
+  <si>
+    <t>0.311420</t>
+  </si>
+  <si>
+    <t>0.417255</t>
+  </si>
+  <si>
+    <t>0.390719</t>
+  </si>
+  <si>
+    <t>0.630101</t>
+  </si>
+  <si>
+    <t>0.406813</t>
+  </si>
+  <si>
+    <t>0.514320</t>
+  </si>
+  <si>
+    <t>0.541998</t>
+  </si>
+  <si>
+    <t>0.381167</t>
+  </si>
+  <si>
+    <t>0.393313</t>
+  </si>
+  <si>
+    <t>0.565761</t>
+  </si>
+  <si>
+    <t>0.544080</t>
+  </si>
+  <si>
+    <t>0.429054</t>
+  </si>
+  <si>
+    <t>0.623824</t>
+  </si>
+  <si>
+    <t>0.548243</t>
+  </si>
+  <si>
+    <t>0.513376</t>
+  </si>
+  <si>
+    <t>0.362610</t>
+  </si>
+  <si>
+    <t>0.361659</t>
+  </si>
+  <si>
+    <t>0.482598</t>
+  </si>
+  <si>
+    <t>0.655219</t>
+  </si>
+  <si>
+    <t>0.260387</t>
+  </si>
+  <si>
+    <t>0.302864</t>
+  </si>
+  <si>
+    <t>0.308880</t>
+  </si>
+  <si>
+    <t>0.295206</t>
+  </si>
+  <si>
+    <t>0.284148</t>
+  </si>
+  <si>
+    <t>0.353994</t>
+  </si>
+  <si>
+    <t>0.287149</t>
+  </si>
+  <si>
+    <t>0.658510</t>
+  </si>
+  <si>
+    <t>0.442744</t>
   </si>
 </sst>
 </file>
@@ -558,11 +768,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BB18C9-DF91-0443-81E7-3680003DA07F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -908,23 +1118,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="22">
-        <f>MIN(DATA!E$2:E$101)</f>
-        <v>2.3700000000000001E-3</v>
+        <f>MIN(DATA!E$2:E$86)</f>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="C4" s="8">
-        <f>MIN(DATA!F$2:F$101)</f>
+        <f>MIN(DATA!F$2:F$86)</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.787802</v>
+        <f>MIN(DATA!G$2:G$86)</f>
+        <v>0.75841499999999995</v>
       </c>
       <c r="E4" s="8">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$86)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>MIN(DATA!I$2:I$101)</f>
+        <f>MIN(DATA!I$2:I$86)</f>
         <v>0</v>
       </c>
     </row>
@@ -933,24 +1143,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="22">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>1.3180000000000001E-2</v>
+        <f>MAX(DATA!E$2:E$86)</f>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="C5" s="8">
-        <f>MAX(DATA!F$2:F$101)</f>
-        <v>1.5214E-2</v>
+        <f>MAX(DATA!F$2:F$86)</f>
+        <v>2.3737999999999999E-2</v>
       </c>
       <c r="D5" s="8">
-        <f>MAX(DATA!G$2:G$101)</f>
+        <f>MAX(DATA!G$2:G$86)</f>
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.75673500000000005</v>
+        <f>MAX(DATA!H$2:H$86)</f>
+        <v>0.80113599999999996</v>
       </c>
       <c r="F5" s="8">
-        <f>MAX(DATA!I$2:I$101)</f>
-        <v>0.63461699999999999</v>
+        <f>MAX(DATA!I$2:I$86)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,24 +1168,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="22">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>5.6529000000000006E-3</v>
+        <f>AVERAGE(DATA!E$2:E$86)</f>
+        <v>1.9567058823529416E-3</v>
       </c>
       <c r="C6" s="8">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>9.6425899999999995E-3</v>
+        <f>AVERAGE(DATA!F$2:F$86)</f>
+        <v>1.0261976470588236E-2</v>
       </c>
       <c r="D6" s="8">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.88175820999999954</v>
+        <f>AVERAGE(DATA!G$2:G$86)</f>
+        <v>0.86273435294117629</v>
       </c>
       <c r="E6" s="8">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.53234572000000002</v>
-      </c>
-      <c r="F6" s="8">
-        <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>0.29452503000000002</v>
+        <f>AVERAGE(DATA!H$2:H$86)</f>
+        <v>0.57363284705882356</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>AVERAGE(DATA!I$2:I$86)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,24 +1193,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>5.1249999999999993E-3</v>
+        <f>MEDIAN(DATA!E$2:E$86)</f>
+        <v>1.9E-3</v>
       </c>
       <c r="C7" s="8">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>9.8825000000000007E-3</v>
+        <f>MEDIAN(DATA!F$2:F$86)</f>
+        <v>1.1292999999999999E-2</v>
       </c>
       <c r="D7" s="8">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.88816050000000002</v>
+        <f>MEDIAN(DATA!G$2:G$86)</f>
+        <v>0.85518499999999997</v>
       </c>
       <c r="E7" s="8">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.53559000000000001</v>
-      </c>
-      <c r="F7" s="8">
-        <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>0.26852900000000002</v>
+        <f>MEDIAN(DATA!H$2:H$86)</f>
+        <v>0.62218499999999999</v>
+      </c>
+      <c r="F7" s="8" t="e">
+        <f>MEDIAN(DATA!I$2:I$86)</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,24 +1218,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="27">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>2.1259855919958004E-3</v>
+        <f>STDEV(DATA!E$2:E$86)</f>
+        <v>6.4105639792621106E-4</v>
       </c>
       <c r="C8" s="13">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>2.9099809992610957E-3</v>
+        <f>STDEV(DATA!F$2:F$86)</f>
+        <v>4.6072710520500956E-3</v>
       </c>
       <c r="D8" s="13">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>3.8446828229582876E-2</v>
+        <f>STDEV(DATA!G$2:G$86)</f>
+        <v>5.0307744397596985E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.12235000552390116</v>
-      </c>
-      <c r="F8" s="13">
-        <f>STDEV(DATA!I$2:I$101)</f>
-        <v>0.11334464258168003</v>
+        <f>STDEV(DATA!H$2:H$86)</f>
+        <v>0.15632911247433065</v>
+      </c>
+      <c r="F8" s="13" t="e">
+        <f>STDEV(DATA!I$2:I$86)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,25 +1286,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1122,25 +1333,25 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>2542129.6152590001</v>
+        <v>2541283.990822</v>
       </c>
       <c r="E2" s="21">
-        <v>5.0200000000000002E-3</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1151,1811 +1362,1811 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>2542391.2799829999</v>
+        <v>2543828.2771370001</v>
       </c>
       <c r="E3" s="22">
-        <v>8.1099999999999992E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>1.03E-4</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="G3" s="22">
-        <v>0.99788299999999996</v>
+        <v>0.96969799999999995</v>
       </c>
       <c r="H3" s="9">
-        <v>2.1198000000000002E-2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4.261E-3</v>
+        <v>0.183478</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2545416.8796279998</v>
+        <v>2544576.1554780002</v>
       </c>
       <c r="E4" s="22">
-        <v>6.2100000000000002E-3</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="F4" s="22">
-        <v>1.2930000000000001E-3</v>
+        <v>1.2949999999999999E-3</v>
       </c>
       <c r="G4" s="22">
-        <v>0.97450700000000001</v>
+        <v>0.95839700000000005</v>
       </c>
       <c r="H4" s="9">
-        <v>0.16120799999999999</v>
-      </c>
-      <c r="I4" s="9">
-        <v>5.3308000000000001E-2</v>
+        <v>0.24048800000000001</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>2548624.7959540002</v>
+        <v>2546434.351909</v>
       </c>
       <c r="E5" s="22">
-        <v>3.8500000000000001E-3</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>2.555E-3</v>
+        <v>2.0270000000000002E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.95591700000000002</v>
+        <v>0.94285799999999997</v>
       </c>
       <c r="H5" s="9">
-        <v>0.24984000000000001</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9.5089999999999994E-2</v>
+        <v>0.29009499999999999</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2549608.8552919999</v>
+        <v>2546697.4965630001</v>
       </c>
       <c r="E6" s="22">
-        <v>2.5999999999999999E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>2.9420000000000002E-3</v>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.93365299999999996</v>
+        <v>0.95903400000000005</v>
       </c>
       <c r="H6" s="9">
-        <v>0.33252300000000001</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.14818100000000001</v>
+        <v>0.23785800000000001</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>2556053.770426</v>
+        <v>2547146.5606869999</v>
       </c>
       <c r="E7" s="22">
-        <v>4.1799999999999997E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>5.4770000000000001E-3</v>
+        <v>2.307E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.89860899999999999</v>
+        <v>0.89366299999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.45435199999999998</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.24504100000000001</v>
+        <v>0.48832500000000001</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>2556970.8367420002</v>
+        <v>2547607.1202119999</v>
       </c>
       <c r="E8" s="22">
-        <v>2.8600000000000001E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>5.8380000000000003E-3</v>
+        <v>2.4880000000000002E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.89815599999999995</v>
+        <v>0.94791599999999998</v>
       </c>
       <c r="H8" s="9">
-        <v>0.50907100000000005</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.24016699999999999</v>
+        <v>0.27751900000000002</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2557088.0129229999</v>
+        <v>2548952.7162449998</v>
       </c>
       <c r="E9" s="22">
-        <v>5.4000000000000003E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>5.8840000000000003E-3</v>
+        <v>3.0179999999999998E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.91044800000000004</v>
+        <v>0.94770799999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>0.46180500000000002</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.20848700000000001</v>
+        <v>0.274752</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2557240.2618999998</v>
+        <v>2550195.3351790002</v>
       </c>
       <c r="E10" s="22">
-        <v>5.5300000000000002E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>5.9439999999999996E-3</v>
+        <v>3.5070000000000001E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.94600300000000004</v>
+        <v>0.90437000000000001</v>
       </c>
       <c r="H10" s="9">
-        <v>0.29511700000000002</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.120307</v>
+        <v>0.43725199999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2557488.6691120001</v>
+        <v>2550544.3631150001</v>
       </c>
       <c r="E11" s="22">
-        <v>3.6600000000000001E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>6.0419999999999996E-3</v>
+        <v>3.6440000000000001E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.89990099999999995</v>
+        <v>0.88864900000000002</v>
       </c>
       <c r="H11" s="9">
-        <v>0.50503699999999996</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.23432700000000001</v>
+        <v>0.47902899999999998</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2558242.0836370001</v>
+        <v>2550544.893964</v>
       </c>
       <c r="E12" s="22">
-        <v>6.8500000000000002E-3</v>
+        <v>2.82E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>6.3379999999999999E-3</v>
+        <v>3.6440000000000001E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.92414300000000005</v>
+        <v>0.90438799999999997</v>
       </c>
       <c r="H12" s="9">
-        <v>0.40004800000000001</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.170182</v>
+        <v>0.44053599999999998</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2558837.5409570001</v>
+        <v>2551766.5506719998</v>
       </c>
       <c r="E13" s="22">
-        <v>3.9899999999999996E-3</v>
+        <v>5.5100000000000001E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>6.5719999999999997E-3</v>
+        <v>4.1250000000000002E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.922786</v>
+        <v>0.95404599999999995</v>
       </c>
       <c r="H13" s="9">
-        <v>0.418487</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.17564099999999999</v>
+        <v>0.29752600000000001</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2559714.1302629998</v>
+        <v>2551852.6607750002</v>
       </c>
       <c r="E14" s="22">
-        <v>3.96E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>6.9170000000000004E-3</v>
+        <v>4.1590000000000004E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.92188700000000001</v>
+        <v>0.94195899999999999</v>
       </c>
       <c r="H14" s="9">
-        <v>0.41412500000000002</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.17861299999999999</v>
+        <v>0.29683700000000002</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2560427.23122</v>
+        <v>2552207.4881799999</v>
       </c>
       <c r="E15" s="22">
-        <v>1.136E-2</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>7.1980000000000004E-3</v>
+        <v>4.2979999999999997E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.90119199999999999</v>
+        <v>0.93092600000000003</v>
       </c>
       <c r="H15" s="9">
-        <v>0.49163200000000001</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.23330000000000001</v>
+        <v>0.33936100000000002</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2560608.993768</v>
+        <v>2552384.6926569999</v>
       </c>
       <c r="E16" s="22">
-        <v>1.128E-2</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>7.2690000000000003E-3</v>
+        <v>4.3680000000000004E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.89072200000000001</v>
+        <v>0.92472600000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>0.45288800000000001</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.26841799999999999</v>
+        <v>0.36829099999999998</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2560775.5281989998</v>
+        <v>2552630.219912</v>
       </c>
       <c r="E17" s="22">
-        <v>5.47E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>7.3350000000000004E-3</v>
+        <v>4.4650000000000002E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.88565899999999997</v>
+        <v>0.90428200000000003</v>
       </c>
       <c r="H17" s="9">
-        <v>0.46448200000000001</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.27697500000000003</v>
+        <v>0.43394300000000002</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2561106.9585429998</v>
+        <v>2552949.3198770001</v>
       </c>
       <c r="E18" s="22">
-        <v>9.2999999999999992E-3</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="F18" s="22">
-        <v>7.4650000000000003E-3</v>
+        <v>4.5900000000000003E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.908327</v>
+        <v>0.93044499999999997</v>
       </c>
       <c r="H18" s="9">
-        <v>0.467445</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.21404999999999999</v>
+        <v>0.33243800000000001</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2561315.127113</v>
+        <v>2553509.6045940001</v>
       </c>
       <c r="E19" s="22">
-        <v>5.3800000000000002E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>7.5469999999999999E-3</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.89749599999999996</v>
+        <v>0.89776500000000004</v>
       </c>
       <c r="H19" s="9">
-        <v>0.50241100000000005</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.24330199999999999</v>
+        <v>0.45688699999999999</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2561453.8443379998</v>
+        <v>2555088.4299699999</v>
       </c>
       <c r="E20" s="22">
-        <v>4.4200000000000003E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>7.6020000000000003E-3</v>
+        <v>5.4320000000000002E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.86880900000000005</v>
+        <v>0.93549099999999996</v>
       </c>
       <c r="H20" s="9">
-        <v>0.58209</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.33095400000000003</v>
+        <v>0.34080199999999999</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2561545.014068</v>
+        <v>2558401.3619030002</v>
       </c>
       <c r="E21" s="22">
-        <v>3.0999999999999999E-3</v>
+        <v>1.5200000000000001E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>7.6369999999999997E-3</v>
+        <v>6.7359999999999998E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.89962699999999995</v>
+        <v>0.88979699999999995</v>
       </c>
       <c r="H21" s="9">
-        <v>0.49628699999999998</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.23738799999999999</v>
+        <v>0.45727200000000001</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2561583.5485430001</v>
+        <v>2560757.8798739999</v>
       </c>
       <c r="E22" s="22">
-        <v>3.0000000000000001E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>7.6530000000000001E-3</v>
+        <v>7.6629999999999997E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.89950699999999995</v>
+        <v>0.88096799999999997</v>
       </c>
       <c r="H22" s="9">
-        <v>0.49737199999999998</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.23780599999999999</v>
+        <v>0.55882500000000002</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2561742.239538</v>
+        <v>2560858.7712650001</v>
       </c>
       <c r="E23" s="22">
-        <v>3.8400000000000001E-3</v>
+        <v>2.3800000000000002E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>7.7149999999999996E-3</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.91544999999999999</v>
+        <v>0.85518499999999997</v>
       </c>
       <c r="H23" s="9">
-        <v>0.44531999999999999</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.19417300000000001</v>
+        <v>0.62156800000000001</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2561943.3001279999</v>
+        <v>2560875.115129</v>
       </c>
       <c r="E24" s="22">
-        <v>5.9800000000000001E-3</v>
+        <v>2.15E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>7.7939999999999997E-3</v>
+        <v>7.7089999999999997E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.87277400000000005</v>
+        <v>0.87943700000000002</v>
       </c>
       <c r="H24" s="9">
-        <v>0.57612699999999994</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.31734899999999999</v>
+        <v>0.56212799999999996</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2562113.780634</v>
+        <v>2562073.0564720002</v>
       </c>
       <c r="E25" s="22">
-        <v>4.15E-3</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>7.8609999999999999E-3</v>
+        <v>8.1810000000000008E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.898559</v>
+        <v>0.88927199999999995</v>
       </c>
       <c r="H25" s="9">
-        <v>0.50526700000000002</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.240284</v>
+        <v>0.52965899999999999</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2562380.5580460001</v>
+        <v>2562353.1635770001</v>
       </c>
       <c r="E26" s="22">
-        <v>3.16E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>7.9660000000000009E-3</v>
+        <v>8.2909999999999998E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.91002499999999997</v>
+        <v>0.88212400000000002</v>
       </c>
       <c r="H26" s="9">
-        <v>0.46932800000000002</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.20780599999999999</v>
+        <v>0.55196299999999998</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2563212.168236</v>
+        <v>2562922.6678149998</v>
       </c>
       <c r="E27" s="22">
-        <v>3.2799999999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>8.293E-3</v>
+        <v>8.515E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.92121399999999998</v>
+        <v>0.85514299999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>0.41664200000000001</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.18003</v>
+        <v>0.61669600000000002</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2563697.184008</v>
+        <v>2564132.2794169998</v>
       </c>
       <c r="E28" s="22">
-        <v>3.5400000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>8.4840000000000002E-3</v>
+        <v>8.9910000000000007E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.87887700000000002</v>
+        <v>0.86505200000000004</v>
       </c>
       <c r="H28" s="9">
-        <v>0.56142300000000001</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.29617599999999999</v>
+        <v>0.59197299999999997</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2564067.4008849999</v>
+        <v>2564791.931566</v>
       </c>
       <c r="E29" s="22">
-        <v>1.072E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>8.6300000000000005E-3</v>
+        <v>9.2499999999999995E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.89761199999999997</v>
+        <v>0.88232299999999997</v>
       </c>
       <c r="H29" s="9">
-        <v>0.50918699999999995</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.24229700000000001</v>
+        <v>0.55321500000000001</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2564597.0012059999</v>
+        <v>2564860.2499609999</v>
       </c>
       <c r="E30" s="22">
-        <v>3.1099999999999999E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>8.8380000000000004E-3</v>
+        <v>9.2770000000000005E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.89529899999999996</v>
+        <v>0.85833000000000004</v>
       </c>
       <c r="H30" s="9">
-        <v>0.51480400000000004</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.24915999999999999</v>
+        <v>0.61085199999999995</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2564619.5408620001</v>
+        <v>2565744.0766099999</v>
       </c>
       <c r="E31" s="22">
-        <v>3.4499999999999999E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>8.8470000000000007E-3</v>
+        <v>9.6249999999999999E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.898613</v>
+        <v>0.85300799999999999</v>
       </c>
       <c r="H31" s="9">
-        <v>0.504556</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0.24010799999999999</v>
+        <v>0.62883199999999995</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2564657.8079220001</v>
+        <v>2566237.1335089998</v>
       </c>
       <c r="E32" s="22">
-        <v>4.45E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>8.8620000000000001E-3</v>
+        <v>9.8189999999999996E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.89655300000000004</v>
+        <v>0.84225399999999995</v>
       </c>
       <c r="H32" s="9">
-        <v>0.51094300000000004</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0.24571299999999999</v>
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2564826.4887390002</v>
+        <v>2566659.2940119999</v>
       </c>
       <c r="E33" s="22">
-        <v>4.5500000000000002E-3</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>8.9280000000000002E-3</v>
+        <v>9.9850000000000008E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.89490199999999998</v>
+        <v>0.85010200000000002</v>
       </c>
       <c r="H33" s="9">
-        <v>0.51670899999999997</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0.25034600000000001</v>
+        <v>0.63933600000000002</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2564948.356315</v>
+        <v>2566832.3799200002</v>
       </c>
       <c r="E34" s="22">
-        <v>7.1599999999999997E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>8.9759999999999996E-3</v>
+        <v>1.0052999999999999E-2</v>
       </c>
       <c r="G34" s="22">
-        <v>0.87233499999999997</v>
+        <v>0.838565</v>
       </c>
       <c r="H34" s="9">
-        <v>0.58157599999999998</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0.317303</v>
+        <v>0.61973299999999998</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2564999.1891729999</v>
+        <v>2566843.9198179999</v>
       </c>
       <c r="E35" s="22">
-        <v>5.1599999999999997E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>8.9960000000000005E-3</v>
+        <v>1.0057999999999999E-2</v>
       </c>
       <c r="G35" s="22">
-        <v>0.90400199999999997</v>
+        <v>0.83739600000000003</v>
       </c>
       <c r="H35" s="9">
-        <v>0.48810199999999998</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.224661</v>
+        <v>0.64605100000000004</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2565030.2625310002</v>
+        <v>2566854.8678939999</v>
       </c>
       <c r="E36" s="22">
-        <v>4.9399999999999999E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>9.0080000000000004E-3</v>
+        <v>1.0062E-2</v>
       </c>
       <c r="G36" s="22">
-        <v>0.87002999999999997</v>
+        <v>0.88115699999999997</v>
       </c>
       <c r="H36" s="9">
-        <v>0.57327600000000001</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.32764599999999999</v>
+        <v>0.48222399999999999</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2565122.000025</v>
+        <v>2567166.8558649998</v>
       </c>
       <c r="E37" s="22">
-        <v>4.7699999999999999E-3</v>
+        <v>1.72E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>9.0449999999999992E-3</v>
+        <v>1.0185E-2</v>
       </c>
       <c r="G37" s="22">
-        <v>0.89687700000000004</v>
+        <v>0.82737400000000005</v>
       </c>
       <c r="H37" s="9">
-        <v>0.50971699999999998</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0.24449399999999999</v>
+        <v>0.69519799999999998</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2565490.4783979999</v>
+        <v>2567271.0631269999</v>
       </c>
       <c r="E38" s="22">
-        <v>6.1199999999999996E-3</v>
+        <v>2.31E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>9.1889999999999993E-3</v>
+        <v>1.0226000000000001E-2</v>
       </c>
       <c r="G38" s="22">
-        <v>0.89829800000000004</v>
+        <v>0.86862600000000001</v>
       </c>
       <c r="H38" s="9">
-        <v>0.50014499999999995</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.24127799999999999</v>
+        <v>0.58963299999999996</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2565601.0803049998</v>
+        <v>2567428.3012179998</v>
       </c>
       <c r="E39" s="22">
-        <v>3.7299999999999998E-3</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="F39" s="22">
-        <v>9.2329999999999999E-3</v>
+        <v>1.0288E-2</v>
       </c>
       <c r="G39" s="22">
-        <v>0.893903</v>
+        <v>0.78877699999999995</v>
       </c>
       <c r="H39" s="9">
-        <v>0.518903</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.25240000000000001</v>
+        <v>0.67674400000000001</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2565825.2231839998</v>
+        <v>2568221.8889290001</v>
       </c>
       <c r="E40" s="22">
-        <v>6.43E-3</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>9.3209999999999994E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="G40" s="22">
-        <v>0.87783599999999995</v>
+        <v>0.79618</v>
       </c>
       <c r="H40" s="9">
-        <v>0.57094199999999995</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0.299072</v>
+        <v>0.74117</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2565826.7459339998</v>
+        <v>2569572.5987510001</v>
       </c>
       <c r="E41" s="22">
-        <v>3.5699999999999998E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>9.3220000000000004E-3</v>
+        <v>1.1132E-2</v>
       </c>
       <c r="G41" s="22">
-        <v>0.87741199999999997</v>
+        <v>0.86791700000000005</v>
       </c>
       <c r="H41" s="9">
-        <v>0.56319900000000001</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0.30193700000000001</v>
+        <v>0.62218499999999999</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2565937.3762349999</v>
+        <v>2569708.767527</v>
       </c>
       <c r="E42" s="22">
-        <v>2.3700000000000001E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>9.3650000000000001E-3</v>
+        <v>1.1185E-2</v>
       </c>
       <c r="G42" s="22">
-        <v>0.84257899999999997</v>
+        <v>0.85265400000000002</v>
       </c>
       <c r="H42" s="9">
-        <v>0.57035999999999998</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0.412132</v>
+        <v>0.63951599999999997</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2566362.9174609999</v>
+        <v>2569800.0972799999</v>
       </c>
       <c r="E43" s="22">
-        <v>7.3699999999999998E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>9.5329999999999998E-3</v>
+        <v>1.1221E-2</v>
       </c>
       <c r="G43" s="22">
-        <v>0.87038300000000002</v>
+        <v>0.83687900000000004</v>
       </c>
       <c r="H43" s="9">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0.32274799999999998</v>
+        <v>0.64976800000000001</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2566499.8282730002</v>
+        <v>2569982.2871730002</v>
       </c>
       <c r="E44" s="22">
-        <v>5.4299999999999999E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>9.587E-3</v>
+        <v>1.1292999999999999E-2</v>
       </c>
       <c r="G44" s="22">
-        <v>0.90224599999999999</v>
+        <v>0.85011400000000004</v>
       </c>
       <c r="H44" s="9">
-        <v>0.49909900000000001</v>
-      </c>
-      <c r="I44" s="9">
-        <v>0.22920199999999999</v>
+        <v>0.63575899999999996</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2566654.7161810002</v>
+        <v>2570509.8019209998</v>
       </c>
       <c r="E45" s="22">
-        <v>3.3E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>9.6469999999999993E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="G45" s="22">
-        <v>0.91232500000000005</v>
+        <v>0.84207500000000002</v>
       </c>
       <c r="H45" s="9">
-        <v>0.45188499999999998</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0.20294899999999999</v>
+        <v>0.663713</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2566668.5785249998</v>
+        <v>2570721.038218</v>
       </c>
       <c r="E46" s="22">
-        <v>6.5700000000000003E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>9.6530000000000001E-3</v>
+        <v>1.1584000000000001E-2</v>
       </c>
       <c r="G46" s="22">
-        <v>0.87414099999999995</v>
+        <v>0.85706099999999996</v>
       </c>
       <c r="H46" s="9">
-        <v>0.56975500000000001</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.31343399999999999</v>
+        <v>0.61899599999999999</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2566673.6208350002</v>
+        <v>2570723.7488489999</v>
       </c>
       <c r="E47" s="22">
-        <v>4.7400000000000003E-3</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>9.6550000000000004E-3</v>
+        <v>1.1585E-2</v>
       </c>
       <c r="G47" s="22">
-        <v>0.89385800000000004</v>
+        <v>0.80081500000000005</v>
       </c>
       <c r="H47" s="9">
-        <v>0.52219000000000004</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0.25318400000000002</v>
+        <v>0.63696299999999995</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2566679.294433</v>
+        <v>2570797.2721680002</v>
       </c>
       <c r="E48" s="22">
-        <v>4.7400000000000003E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>9.6570000000000007E-3</v>
+        <v>1.1613999999999999E-2</v>
       </c>
       <c r="G48" s="22">
-        <v>0.89436099999999996</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="H48" s="9">
-        <v>0.51883299999999999</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0.25196200000000002</v>
+        <v>0.66452199999999995</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2566937.3743850002</v>
+        <v>2570963.3770099999</v>
       </c>
       <c r="E49" s="22">
-        <v>5.5399999999999998E-3</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>9.7590000000000003E-3</v>
+        <v>1.1679E-2</v>
       </c>
       <c r="G49" s="22">
-        <v>0.86985400000000002</v>
+        <v>0.84367800000000004</v>
       </c>
       <c r="H49" s="9">
-        <v>0.57595399999999997</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0.32667600000000002</v>
+        <v>0.65746000000000004</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2567083.4267279999</v>
+        <v>2571727.8226890001</v>
       </c>
       <c r="E50" s="22">
-        <v>4.8500000000000001E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>9.8160000000000001E-3</v>
+        <v>1.1979999999999999E-2</v>
       </c>
       <c r="G50" s="22">
-        <v>0.87508200000000003</v>
+        <v>0.88606399999999996</v>
       </c>
       <c r="H50" s="9">
-        <v>0.56778799999999996</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0.310529</v>
+        <v>0.56820800000000005</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2567195.0577099998</v>
+        <v>2572083.317785</v>
       </c>
       <c r="E51" s="22">
-        <v>5.8900000000000003E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>9.8600000000000007E-3</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.87357200000000002</v>
+        <v>0.83237300000000003</v>
       </c>
       <c r="H51" s="9">
-        <v>0.58359000000000005</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0.31160900000000002</v>
+        <v>0.67533100000000001</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2567309.9594709999</v>
+        <v>2572126.3652969999</v>
       </c>
       <c r="E52" s="22">
-        <v>4.5300000000000002E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>9.9050000000000006E-3</v>
+        <v>1.2137E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.90161500000000006</v>
+        <v>0.83658500000000002</v>
       </c>
       <c r="H52" s="9">
-        <v>0.49566700000000002</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.23113700000000001</v>
+        <v>0.677817</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2567337.0805620002</v>
+        <v>2572312.153645</v>
       </c>
       <c r="E53" s="22">
-        <v>5.0099999999999997E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>9.9159999999999995E-3</v>
+        <v>1.221E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.89182099999999997</v>
+        <v>0.842001</v>
       </c>
       <c r="H53" s="9">
-        <v>0.52707999999999999</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0.258492</v>
+        <v>0.66141700000000003</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2567540.5213319999</v>
+        <v>2572515.2166840001</v>
       </c>
       <c r="E54" s="22">
-        <v>7.0299999999999998E-3</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>9.9959999999999997E-3</v>
+        <v>1.2290000000000001E-2</v>
       </c>
       <c r="G54" s="22">
-        <v>0.87379300000000004</v>
+        <v>0.82134399999999996</v>
       </c>
       <c r="H54" s="9">
-        <v>0.57278899999999999</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0.31442399999999998</v>
+        <v>0.70959099999999997</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2567703.6327579999</v>
+        <v>2572612.9133159998</v>
       </c>
       <c r="E55" s="22">
-        <v>4.0699999999999998E-3</v>
+        <v>2.32E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>1.0059999999999999E-2</v>
+        <v>1.2328E-2</v>
       </c>
       <c r="G55" s="22">
-        <v>0.90393599999999996</v>
+        <v>0.80945500000000004</v>
       </c>
       <c r="H55" s="9">
-        <v>0.48086899999999999</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.225303</v>
+        <v>0.67185600000000001</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2567854.4705869998</v>
+        <v>2572804.1608580002</v>
       </c>
       <c r="E56" s="22">
-        <v>5.7499999999999999E-3</v>
+        <v>3.63E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>1.0119E-2</v>
+        <v>1.2403000000000001E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.90609300000000004</v>
+        <v>0.86735899999999999</v>
       </c>
       <c r="H56" s="9">
-        <v>0.47595100000000001</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0.21901699999999999</v>
+        <v>0.62443899999999997</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2567878.4043259998</v>
+        <v>2573748.2916700002</v>
       </c>
       <c r="E57" s="22">
-        <v>7.4099999999999999E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>1.0129000000000001E-2</v>
+        <v>1.2775E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.86016099999999995</v>
+        <v>0.88625399999999999</v>
       </c>
       <c r="H57" s="9">
-        <v>0.60287400000000002</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0.35655599999999998</v>
+        <v>0.56753100000000001</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2567983.3773739999</v>
+        <v>2574176.0647320002</v>
       </c>
       <c r="E58" s="22">
-        <v>9.4999999999999998E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>1.017E-2</v>
+        <v>1.2943E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.89644800000000002</v>
+        <v>0.81569100000000005</v>
       </c>
       <c r="H58" s="9">
-        <v>0.51072300000000004</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0.24610899999999999</v>
+        <v>0.682697</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2567996.0432540001</v>
+        <v>2574180.8281220002</v>
       </c>
       <c r="E59" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>1.0175E-2</v>
+        <v>1.2945E-2</v>
       </c>
       <c r="G59" s="22">
-        <v>0.89155499999999999</v>
+        <v>0.87290599999999996</v>
       </c>
       <c r="H59" s="9">
-        <v>0.52587200000000001</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0.259411</v>
+        <v>0.59184499999999995</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2568245.253267</v>
+        <v>2574281.1186270001</v>
       </c>
       <c r="E60" s="22">
-        <v>3.5899999999999999E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>1.0272999999999999E-2</v>
+        <v>1.2984000000000001E-2</v>
       </c>
       <c r="G60" s="22">
-        <v>0.89242299999999997</v>
+        <v>0.83984700000000001</v>
       </c>
       <c r="H60" s="9">
-        <v>0.52207899999999996</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0.25700000000000001</v>
+        <v>0.661242</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2568304.6817649999</v>
+        <v>2574417.3617679998</v>
       </c>
       <c r="E61" s="22">
-        <v>5.9100000000000003E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>1.0297000000000001E-2</v>
+        <v>1.3037999999999999E-2</v>
       </c>
       <c r="G61" s="22">
-        <v>0.85381700000000005</v>
+        <v>0.84842300000000004</v>
       </c>
       <c r="H61" s="9">
-        <v>0.61137799999999998</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.37751899999999999</v>
+        <v>0.638602</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2568364.9064879999</v>
+        <v>2574660.1228</v>
       </c>
       <c r="E62" s="22">
-        <v>1.192E-2</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>1.0319999999999999E-2</v>
+        <v>1.3134E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.85318799999999995</v>
+        <v>0.76997000000000004</v>
       </c>
       <c r="H62" s="9">
-        <v>0.62956100000000004</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.378446</v>
+        <v>0.79298299999999999</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2568378.5884460001</v>
+        <v>2574967.6544929999</v>
       </c>
       <c r="E63" s="22">
-        <v>6.8100000000000001E-3</v>
+        <v>2.97E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>1.0326E-2</v>
+        <v>1.3254999999999999E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.86971600000000004</v>
+        <v>0.84337899999999999</v>
       </c>
       <c r="H63" s="9">
-        <v>0.57896999999999998</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0.32719100000000001</v>
+        <v>0.65110500000000004</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2568772.85672</v>
+        <v>2575586.9966119998</v>
       </c>
       <c r="E64" s="22">
-        <v>4.5700000000000003E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>1.0481000000000001E-2</v>
+        <v>1.3498E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.89695899999999995</v>
+        <v>0.80939499999999998</v>
       </c>
       <c r="H64" s="9">
-        <v>0.50827500000000003</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0.24429500000000001</v>
+        <v>0.71525700000000003</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>80</v>
@@ -2964,1066 +3175,631 @@
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2569247.4731020001</v>
+        <v>2575677.3960429998</v>
       </c>
       <c r="E65" s="22">
-        <v>5.7400000000000003E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>1.0666999999999999E-2</v>
+        <v>1.3533999999999999E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.80981499999999995</v>
+        <v>0.800342</v>
       </c>
       <c r="H65" s="9">
-        <v>0.642702</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0.51141499999999995</v>
+        <v>0.73133700000000001</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2569283.0790209998</v>
+        <v>2575755.0584280002</v>
       </c>
       <c r="E66" s="22">
-        <v>7.6600000000000001E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>1.0681E-2</v>
+        <v>1.3564E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.89739500000000005</v>
+        <v>0.85177700000000001</v>
       </c>
       <c r="H66" s="9">
-        <v>0.50614700000000001</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.24314</v>
+        <v>0.63026400000000005</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2569509.3497549999</v>
+        <v>2575770.5473989998</v>
       </c>
       <c r="E67" s="22">
-        <v>6.5100000000000002E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>1.077E-2</v>
+        <v>1.3571E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.79379999999999995</v>
+        <v>0.84757199999999999</v>
       </c>
       <c r="H67" s="9">
-        <v>0.63851500000000005</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0.53837000000000002</v>
+        <v>0.64267099999999999</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2569709.628275</v>
+        <v>2575898.6806410002</v>
       </c>
       <c r="E68" s="22">
-        <v>4.8199999999999996E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>1.0848999999999999E-2</v>
+        <v>1.3620999999999999E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.89519400000000005</v>
+        <v>0.79115500000000005</v>
       </c>
       <c r="H68" s="9">
-        <v>0.51655700000000004</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0.24904100000000001</v>
+        <v>0.73508600000000002</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2569840.025657</v>
+        <v>2576189.8750260002</v>
       </c>
       <c r="E69" s="22">
-        <v>3.7200000000000002E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>1.09E-2</v>
+        <v>1.3736E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.89103699999999997</v>
+        <v>0.79953600000000002</v>
       </c>
       <c r="H69" s="9">
-        <v>0.52797799999999995</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.26109399999999999</v>
+        <v>0.72893600000000003</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2569879.0271729999</v>
+        <v>2576408.5143189998</v>
       </c>
       <c r="E70" s="22">
-        <v>3.8700000000000002E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>1.0916E-2</v>
+        <v>1.3821999999999999E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.89396900000000001</v>
+        <v>0.83585900000000002</v>
       </c>
       <c r="H70" s="9">
-        <v>0.51951700000000001</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0.25297500000000001</v>
+        <v>0.66315900000000005</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2569973.2102780002</v>
+        <v>2576962.189336</v>
       </c>
       <c r="E71" s="22">
-        <v>4.0099999999999997E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>1.0952999999999999E-2</v>
+        <v>1.4038999999999999E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.888208</v>
+        <v>0.77133099999999999</v>
       </c>
       <c r="H71" s="9">
-        <v>0.53650600000000004</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0.26863999999999999</v>
+        <v>0.78455299999999994</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2569978.70585</v>
+        <v>2577491.6647640001</v>
       </c>
       <c r="E72" s="22">
-        <v>4.0099999999999997E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>1.0954999999999999E-2</v>
+        <v>1.4248E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.88840799999999998</v>
+        <v>0.79810800000000004</v>
       </c>
       <c r="H72" s="9">
-        <v>0.53647299999999998</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0.26819700000000002</v>
+        <v>0.73341199999999995</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2570209.2400690001</v>
+        <v>2577497.094205</v>
       </c>
       <c r="E73" s="22">
-        <v>6.45E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>1.1046E-2</v>
+        <v>1.4250000000000001E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.851719</v>
+        <v>0.80905300000000002</v>
       </c>
       <c r="H73" s="9">
-        <v>0.61552399999999996</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0.38297100000000001</v>
+        <v>0.71010799999999996</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2570791.023397</v>
+        <v>2577964.9811030002</v>
       </c>
       <c r="E74" s="22">
-        <v>4.62E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>1.1275E-2</v>
+        <v>1.4434000000000001E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.85573200000000005</v>
+        <v>0.85418799999999995</v>
       </c>
       <c r="H74" s="9">
-        <v>0.59913499999999997</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.37113299999999999</v>
+        <v>0.66557999999999995</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2571192.7854610002</v>
+        <v>2577966.1468250002</v>
       </c>
       <c r="E75" s="22">
-        <v>5.4400000000000004E-3</v>
+        <v>2.63E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>1.1433E-2</v>
+        <v>1.4434000000000001E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.86846699999999999</v>
+        <v>0.85438599999999998</v>
       </c>
       <c r="H75" s="9">
-        <v>0.58801899999999996</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0.330175</v>
+        <v>0.66390199999999999</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2571325.6907520001</v>
+        <v>2578213.722695</v>
       </c>
       <c r="E76" s="22">
-        <v>6.7000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>1.1485E-2</v>
+        <v>1.4532E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.85606899999999997</v>
+        <v>0.81868799999999997</v>
       </c>
       <c r="H76" s="9">
-        <v>0.61172400000000005</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0.36836799999999997</v>
+        <v>0.68929399999999996</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2571603.8798690001</v>
+        <v>2578607.1663629999</v>
       </c>
       <c r="E77" s="22">
-        <v>7.62E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>1.1594E-2</v>
+        <v>1.4687E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.80123800000000001</v>
+        <v>0.75841499999999995</v>
       </c>
       <c r="H77" s="9">
-        <v>0.72419299999999998</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0.54012700000000002</v>
+        <v>0.80113599999999996</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2571613.0425940002</v>
+        <v>2578690.6246719998</v>
       </c>
       <c r="E78" s="22">
-        <v>7.0200000000000002E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>1.1598000000000001E-2</v>
+        <v>1.472E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.844028</v>
+        <v>0.89101399999999997</v>
       </c>
       <c r="H78" s="9">
-        <v>0.64985700000000002</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0.40810200000000002</v>
+        <v>0.55527700000000002</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2571692.2303439998</v>
+        <v>2579324.1471810001</v>
       </c>
       <c r="E79" s="22">
-        <v>3.48E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>1.1629E-2</v>
+        <v>1.4969E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.85512100000000002</v>
+        <v>0.87689399999999995</v>
       </c>
       <c r="H79" s="9">
-        <v>0.63290800000000003</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0.36857200000000001</v>
+        <v>0.58186700000000002</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2571884.2778070001</v>
+        <v>2579803.1905820002</v>
       </c>
       <c r="E80" s="22">
-        <v>5.0899999999999999E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>1.1705E-2</v>
+        <v>1.5157E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.88276900000000003</v>
+        <v>0.87185800000000002</v>
       </c>
       <c r="H80" s="9">
-        <v>0.55542499999999995</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0.28433399999999998</v>
+        <v>0.61287499999999995</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2572039.9179110001</v>
+        <v>2581168.0777460001</v>
       </c>
       <c r="E81" s="22">
-        <v>5.0899999999999999E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>1.1766E-2</v>
+        <v>1.5694E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.88460099999999997</v>
+        <v>0.87696200000000002</v>
       </c>
       <c r="H81" s="9">
-        <v>0.54736799999999997</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0.278945</v>
+        <v>0.599186</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2572165.7378400001</v>
+        <v>2581271.8228989998</v>
       </c>
       <c r="E82" s="22">
-        <v>9.8399999999999998E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>1.1815000000000001E-2</v>
+        <v>1.5734999999999999E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.84208799999999995</v>
+        <v>0.880938</v>
       </c>
       <c r="H82" s="9">
-        <v>0.65895700000000001</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0.41251900000000002</v>
+        <v>0.58750800000000003</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2572286.7595270001</v>
+        <v>2583576.0322460001</v>
       </c>
       <c r="E83" s="22">
-        <v>5.0899999999999999E-3</v>
+        <v>2.5699999999999998E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>1.1863E-2</v>
+        <v>1.6642000000000001E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.88411499999999998</v>
+        <v>0.85702500000000004</v>
       </c>
       <c r="H83" s="9">
-        <v>0.55000400000000005</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0.280167</v>
+        <v>0.65662500000000001</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2572533.9497309998</v>
+        <v>2584167.1356819998</v>
       </c>
       <c r="E84" s="22">
-        <v>4.8199999999999996E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>1.196E-2</v>
+        <v>1.6875000000000001E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.86632600000000004</v>
+        <v>0.88153199999999998</v>
       </c>
       <c r="H84" s="9">
-        <v>0.60177800000000004</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0.33279999999999998</v>
+        <v>0.57600600000000002</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2572640.9544509999</v>
+        <v>2589332.638245</v>
       </c>
       <c r="E85" s="22">
-        <v>6.5700000000000003E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>1.2002000000000001E-2</v>
+        <v>1.8907E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.88811300000000004</v>
+        <v>0.76037699999999997</v>
       </c>
       <c r="H85" s="9">
-        <v>0.53470700000000004</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0.26823999999999998</v>
+        <v>0.78191299999999997</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2572644.6670869999</v>
+        <v>2601608.921108</v>
       </c>
       <c r="E86" s="22">
-        <v>5.5799999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>1.2004000000000001E-2</v>
+        <v>2.3737999999999999E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.88529500000000005</v>
+        <v>0.83138000000000001</v>
       </c>
       <c r="H86" s="9">
-        <v>0.54561099999999996</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0.27702700000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>81</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-      <c r="D87" s="23">
-        <v>2573114.0460399999</v>
-      </c>
-      <c r="E87" s="22">
-        <v>7.8899999999999994E-3</v>
-      </c>
-      <c r="F87" s="22">
-        <v>1.2187999999999999E-2</v>
-      </c>
-      <c r="G87" s="22">
-        <v>0.88701200000000002</v>
-      </c>
-      <c r="H87" s="9">
-        <v>0.53893800000000003</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0.27130500000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>93</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88" s="23">
-        <v>2573657.8760390002</v>
-      </c>
-      <c r="E88" s="22">
-        <v>4.9899999999999996E-3</v>
-      </c>
-      <c r="F88" s="22">
-        <v>1.2402E-2</v>
-      </c>
-      <c r="G88" s="22">
-        <v>0.84900600000000004</v>
-      </c>
-      <c r="H88" s="9">
-        <v>0.62029800000000002</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0.38972600000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>68</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" s="23">
-        <v>2573839.0431579999</v>
-      </c>
-      <c r="E89" s="22">
-        <v>7.11E-3</v>
-      </c>
-      <c r="F89" s="22">
-        <v>1.2474000000000001E-2</v>
-      </c>
-      <c r="G89" s="22">
-        <v>0.87576600000000004</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0.577735</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0.30406499999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>51</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="23">
-        <v>2574272.5609289999</v>
-      </c>
-      <c r="E90" s="22">
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="F90" s="22">
-        <v>1.2644000000000001E-2</v>
-      </c>
-      <c r="G90" s="22">
-        <v>0.84745400000000004</v>
-      </c>
-      <c r="H90" s="9">
-        <v>0.64286399999999999</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0.394561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>70</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" s="23">
-        <v>2574440.838403</v>
-      </c>
-      <c r="E91" s="22">
-        <v>1.3180000000000001E-2</v>
-      </c>
-      <c r="F91" s="22">
-        <v>1.2710000000000001E-2</v>
-      </c>
-      <c r="G91" s="22">
-        <v>0.84214500000000003</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0.65515500000000004</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0.41145700000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>53</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="23">
-        <v>2575222.5142999999</v>
-      </c>
-      <c r="E92" s="22">
-        <v>3.1099999999999999E-3</v>
-      </c>
-      <c r="F92" s="22">
-        <v>1.3018E-2</v>
-      </c>
-      <c r="G92" s="22">
-        <v>0.80415899999999996</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0.73063199999999995</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0.53027199999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>23</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" s="23">
-        <v>2576846.1496009999</v>
-      </c>
-      <c r="E93" s="22">
-        <v>5.6600000000000001E-3</v>
-      </c>
-      <c r="F93" s="22">
-        <v>1.3656E-2</v>
-      </c>
-      <c r="G93" s="22">
-        <v>0.87517699999999998</v>
-      </c>
-      <c r="H93" s="9">
-        <v>0.58025800000000005</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0.30613499999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>80</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" s="23">
-        <v>2577176.2981329998</v>
-      </c>
-      <c r="E94" s="22">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="F94" s="22">
-        <v>1.3786E-2</v>
-      </c>
-      <c r="G94" s="22">
-        <v>0.88419400000000004</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0.54669000000000001</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0.28003400000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>100</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23">
-        <v>2577635.160352</v>
-      </c>
-      <c r="E95" s="22">
-        <v>4.81E-3</v>
-      </c>
-      <c r="F95" s="22">
-        <v>1.3967E-2</v>
-      </c>
-      <c r="G95" s="22">
-        <v>0.82369099999999995</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0.70024399999999998</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0.470163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>55</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" s="23">
-        <v>2577773.194656</v>
-      </c>
-      <c r="E96" s="22">
-        <v>7.4700000000000001E-3</v>
-      </c>
-      <c r="F96" s="22">
-        <v>1.4021E-2</v>
-      </c>
-      <c r="G96" s="22">
-        <v>0.80645</v>
-      </c>
-      <c r="H96" s="9">
-        <v>0.72825200000000001</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0.52124800000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>74</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="23">
-        <v>2578449.0972910002</v>
-      </c>
-      <c r="E97" s="22">
-        <v>7.43E-3</v>
-      </c>
-      <c r="F97" s="22">
-        <v>1.4286999999999999E-2</v>
-      </c>
-      <c r="G97" s="22">
-        <v>0.83679400000000004</v>
-      </c>
-      <c r="H97" s="9">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="I97" s="9">
-        <v>0.42807299999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>44</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" s="23">
-        <v>2579105.267184</v>
-      </c>
-      <c r="E98" s="22">
-        <v>7.1300000000000001E-3</v>
-      </c>
-      <c r="F98" s="22">
-        <v>1.4545000000000001E-2</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0.78844800000000004</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0.75673500000000005</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0.63461699999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="23">
-        <v>2579959.3807760002</v>
-      </c>
-      <c r="E99" s="22">
-        <v>6.2100000000000002E-3</v>
-      </c>
-      <c r="F99" s="22">
-        <v>1.4881E-2</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0.84630799999999995</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.64240200000000003</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0.399455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>25</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="23">
-        <v>2580215.0935470001</v>
-      </c>
-      <c r="E100" s="22">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="F100" s="22">
-        <v>1.4982000000000001E-2</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.79217899999999997</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.74990100000000004</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.56689599999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>40</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" s="23">
-        <v>2580806.7812009999</v>
-      </c>
-      <c r="E101" s="22">
-        <v>6.77E-3</v>
-      </c>
-      <c r="F101" s="22">
-        <v>1.5214E-2</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0.787802</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.74793699999999996</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0.63078800000000002</v>
+        <v>0.71181499999999998</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
